--- a/image/飯店總表資料.xlsx
+++ b/image/飯店總表資料.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FunNowTopics\FunNow\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2BCEF3-01B3-42D1-A954-168EC0E964F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEA22C1-969B-4656-B02D-BABA34187661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{DFC27698-85EE-4615-AB07-240BEEF43186}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{DFC27698-85EE-4615-AB07-240BEEF43186}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,12 +432,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,18 +524,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -564,30 +546,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,40 +587,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,8 +661,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>428344</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>113655</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>189855</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1043,7 +1010,7 @@
   <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1082,503 +1049,503 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:8" s="38" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="35">
         <v>91</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="35">
         <v>22</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="35">
         <v>91</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="35">
         <v>22</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="35">
         <v>91</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="35">
         <v>22</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="35">
         <v>93</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="35">
         <v>22</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+    <row r="7" spans="1:8" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="26">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="14">
         <v>94</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="14">
         <v>22</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+    <row r="8" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
         <v>1</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="31">
         <v>101</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="31">
         <v>23</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>97</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <v>23</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="35">
         <v>96</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="35">
         <v>23</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <v>104</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="6">
         <v>23</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="29" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34">
+    <row r="12" spans="1:8" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
         <v>5</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="18">
         <v>1</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="19">
         <v>96</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="19">
         <v>24</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+    <row r="14" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="35">
         <v>99</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="35">
         <v>24</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="9">
         <v>3</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="10">
         <v>95</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="10">
         <v>24</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+    <row r="16" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
         <v>4</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="35">
         <v>95</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="35">
         <v>24</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="29" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+    <row r="17" spans="1:8" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26">
         <v>5</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+    <row r="18" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
         <v>1</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="31">
         <v>94</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39" t="s">
+      <c r="G18" s="31"/>
+      <c r="H18" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:8" s="38" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-    </row>
-    <row r="20" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" s="38" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-    </row>
-    <row r="21" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" s="38" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-    </row>
-    <row r="22" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" s="38" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-    </row>
-    <row r="23" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="1:8" s="38" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-    </row>
-    <row r="24" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="C23" s="32"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="1:8" s="38" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
         <v>2</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="35">
         <v>111</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18" t="s">
+      <c r="G24" s="35"/>
+      <c r="H24" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+    <row r="25" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
         <v>3</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="35">
         <v>107</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="35"/>
+      <c r="H25" s="35" t="s">
         <v>25</v>
       </c>
     </row>
